--- a/admin/arnsberg/kreis-hamm.xlsx
+++ b/admin/arnsberg/kreis-hamm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D9AA7-9DD5-4343-9180-8FD66765C935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD389DC-AFC5-445F-89AD-E644475B0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>Rhynern</t>
   </si>
   <si>
-    <t>Unna Stadtkirche</t>
-  </si>
-  <si>
     <t>froendenberg</t>
   </si>
   <si>
@@ -920,6 +917,9 @@
   </si>
   <si>
     <t>Vermessungsraster</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3">
         <v>221</v>
@@ -1857,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>211</v>
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <v>743</v>
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>106</v>
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7">
         <v>121</v>
@@ -1969,16 +1969,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2003,10 +2003,10 @@
         <v>85</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -2025,16 +2025,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10">
         <v>239</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -2053,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <v>188</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2171,10 +2171,10 @@
         <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -2199,10 +2199,10 @@
         <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -2227,10 +2227,10 @@
         <v>345</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -2255,10 +2255,10 @@
         <v>412</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -2283,10 +2283,10 @@
         <v>380</v>
       </c>
       <c r="I19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -2305,16 +2305,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20">
         <v>342</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -2333,16 +2333,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21">
         <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -2361,16 +2361,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22">
         <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -2389,16 +2389,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23">
         <v>304</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -2417,16 +2417,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24">
         <v>464</v>
       </c>
       <c r="I24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -2445,16 +2445,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25">
         <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -2473,16 +2473,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26">
         <v>318</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -2507,10 +2507,10 @@
         <v>643</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -2529,16 +2529,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28">
         <v>577</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -2557,16 +2557,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>400</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -2585,16 +2585,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30">
         <v>63</v>
       </c>
       <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
         <v>272</v>
-      </c>
-      <c r="J30" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -2613,7 +2613,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31">
         <v>87</v>
@@ -2641,7 +2641,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32">
         <v>180</v>
@@ -2669,7 +2669,7 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33">
         <v>294</v>
@@ -2697,7 +2697,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34">
         <v>75</v>
@@ -2725,16 +2725,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35">
         <v>228</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
@@ -2753,16 +2753,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36">
         <v>230</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -2781,16 +2781,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37">
         <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -2803,7 +2803,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2822,7 +2822,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2841,7 +2841,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2860,7 +2860,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2898,7 +2898,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2917,7 +2917,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -2936,7 +2936,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -2955,7 +2955,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -2974,7 +2974,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2993,7 +2993,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D48">
         <v>11</v>
@@ -3012,7 +3012,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D49">
         <v>12</v>
@@ -3031,7 +3031,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>13</v>
@@ -3050,7 +3050,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51">
         <v>14</v>
@@ -3069,7 +3069,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D52">
         <v>15</v>
@@ -3088,7 +3088,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3126,7 +3126,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3145,7 +3145,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -3164,7 +3164,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -3183,7 +3183,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -3202,7 +3202,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -3221,7 +3221,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -3240,7 +3240,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61">
         <v>9</v>
@@ -3259,7 +3259,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -3278,7 +3278,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63">
         <v>11</v>
@@ -3297,7 +3297,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3354,7 +3354,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -3373,7 +3373,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -3392,7 +3392,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -3411,7 +3411,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70">
         <v>7</v>
@@ -3430,7 +3430,7 @@
         <v>Fröndenberg</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -3449,7 +3449,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3468,7 +3468,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3487,7 +3487,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3506,7 +3506,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -3525,7 +3525,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -3544,7 +3544,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -3563,7 +3563,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -3582,7 +3582,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -3601,7 +3601,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80">
         <v>9</v>
@@ -3620,7 +3620,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -3639,13 +3639,13 @@
         <v>Pelkum</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82">
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F82" s="11"/>
       <c r="I82" s="11"/>
@@ -3660,13 +3660,13 @@
         <v>Pelkum</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F83" s="11"/>
       <c r="I83" s="11"/>
@@ -3681,7 +3681,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85">
         <v>14</v>
@@ -3719,13 +3719,13 @@
         <v>Pelkum</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86">
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F86" s="11"/>
       <c r="I86" s="11"/>
@@ -3740,13 +3740,13 @@
         <v>Pelkum</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F87" s="11"/>
       <c r="I87" s="11"/>
@@ -3761,7 +3761,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -3793,10 +3793,10 @@
         <v>hamm</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -3813,7 +3813,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>Pelkum</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -4340,10 +4340,10 @@
         <v>79</v>
       </c>
       <c r="I111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
@@ -4368,10 +4368,10 @@
         <v>563</v>
       </c>
       <c r="I112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
@@ -4390,14 +4390,14 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F113" s="2"/>
       <c r="I113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
@@ -4420,10 +4420,10 @@
       </c>
       <c r="F114" s="2"/>
       <c r="I114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
@@ -4837,14 +4837,14 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F133" s="2"/>
       <c r="I133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
@@ -4867,10 +4867,10 @@
       </c>
       <c r="F134" s="2"/>
       <c r="I134" t="s">
+        <v>274</v>
+      </c>
+      <c r="J134" t="s">
         <v>275</v>
-      </c>
-      <c r="J134" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +4979,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5042,16 +5042,16 @@
         <v>107</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -5061,25 +5061,25 @@
         <v>hamm</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>185</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>186</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>187</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>188</v>
-      </c>
-      <c r="I3" t="s">
-        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -5089,25 +5089,25 @@
         <v>hamm</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
         <v>190</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>191</v>
-      </c>
-      <c r="I4" t="s">
-        <v>192</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -5117,25 +5117,25 @@
         <v>hamm</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="G5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" t="s">
         <v>193</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>194</v>
-      </c>
-      <c r="I5" t="s">
-        <v>195</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -5145,25 +5145,25 @@
         <v>hamm</v>
       </c>
       <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" t="s">
         <v>196</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>197</v>
-      </c>
-      <c r="I6" t="s">
-        <v>198</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -5176,22 +5176,22 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>228</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>229</v>
-      </c>
-      <c r="I7" t="s">
-        <v>230</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -5204,22 +5204,22 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
         <v>225</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>226</v>
-      </c>
-      <c r="F8" t="s">
-        <v>227</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" t="s">
         <v>231</v>
-      </c>
-      <c r="I8" t="s">
-        <v>232</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5232,22 +5232,22 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
         <v>246</v>
-      </c>
-      <c r="D9" t="s">
-        <v>247</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
         <v>248</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>249</v>
-      </c>
-      <c r="I9" t="s">
-        <v>250</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5257,22 +5257,22 @@
         <v>hamm</v>
       </c>
       <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>162</v>
       </c>
-      <c r="D10" t="s">
-        <v>163</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
         <v>199</v>
-      </c>
-      <c r="H10" t="s">
-        <v>200</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>10</v>
@@ -5285,19 +5285,19 @@
         <v>hamm</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
         <v>181</v>
       </c>
-      <c r="D11" t="s">
-        <v>182</v>
-      </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>10</v>
@@ -5316,25 +5316,25 @@
         <v>hamm</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
         <v>202</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>203</v>
-      </c>
-      <c r="I12" t="s">
-        <v>204</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -5344,22 +5344,22 @@
         <v>hamm</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
         <v>206</v>
-      </c>
-      <c r="H13" t="s">
-        <v>207</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>10</v>
@@ -5372,16 +5372,16 @@
         <v>hamm</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
         <v>176</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>10</v>
@@ -5400,19 +5400,19 @@
         <v>hamm</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
         <v>179</v>
       </c>
-      <c r="D15" t="s">
-        <v>180</v>
-      </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>10</v>
@@ -5434,19 +5434,19 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
         <v>211</v>
-      </c>
-      <c r="H16" t="s">
-        <v>212</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>10</v>
@@ -5462,22 +5462,22 @@
         <v>121</v>
       </c>
       <c r="C17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" t="s">
         <v>213</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>214</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>215</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>216</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>217</v>
-      </c>
-      <c r="I17" t="s">
-        <v>218</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -5490,22 +5490,22 @@
         <v>121</v>
       </c>
       <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
         <v>219</v>
-      </c>
-      <c r="D18" t="s">
-        <v>220</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" t="s">
         <v>221</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>222</v>
-      </c>
-      <c r="I18" t="s">
-        <v>223</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -5518,22 +5518,22 @@
         <v>121</v>
       </c>
       <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
         <v>233</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>234</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>235</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>236</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>237</v>
-      </c>
-      <c r="I19" t="s">
-        <v>238</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -5546,19 +5546,19 @@
         <v>121</v>
       </c>
       <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
         <v>239</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>240</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" t="s">
         <v>242</v>
-      </c>
-      <c r="H20" t="s">
-        <v>243</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>10</v>
@@ -5580,13 +5580,13 @@
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G21" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" t="s">
         <v>244</v>
-      </c>
-      <c r="H21" t="s">
-        <v>245</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>10</v>
@@ -5602,22 +5602,22 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
         <v>251</v>
-      </c>
-      <c r="D22" t="s">
-        <v>252</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" t="s">
         <v>253</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>254</v>
-      </c>
-      <c r="I22" t="s">
-        <v>255</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -5642,10 +5642,10 @@
         <v>110</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -5670,10 +5670,10 @@
         <v>112</v>
       </c>
       <c r="H24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" t="s">
         <v>259</v>
-      </c>
-      <c r="I24" t="s">
-        <v>260</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -5698,10 +5698,10 @@
         <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -5720,7 +5720,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5757,7 +5757,7 @@
         <v>118</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -5795,15 +5795,17 @@
         <v>119</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
@@ -5815,15 +5817,9 @@
       <c r="C5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="14">
-        <v>409239.2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5710123.6100000003</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -5831,10 +5827,10 @@
         <v>119</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>

--- a/admin/arnsberg/kreis-hamm.xlsx
+++ b/admin/arnsberg/kreis-hamm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD389DC-AFC5-445F-89AD-E644475B0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8253A717-CB02-4F62-934B-C2A86536B3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Gemeinden" sheetId="3" r:id="rId3"/>
     <sheet name="Bürgermeistereien" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="294">
   <si>
     <t>Kreis</t>
   </si>
@@ -559,18 +559,6 @@
     <t>LAV: K551-4905</t>
   </si>
   <si>
-    <t>sandbockum</t>
-  </si>
-  <si>
-    <t>Sandbockum</t>
-  </si>
-  <si>
-    <t>heil</t>
-  </si>
-  <si>
-    <t>Heil</t>
-  </si>
-  <si>
     <t>LAV: K551-1745, K551-2312, K551-10912, K551-2283</t>
   </si>
   <si>
@@ -644,9 +632,6 @@
   </si>
   <si>
     <t>LAV: K551-1962, K551-1963</t>
-  </si>
-  <si>
-    <t>Möglicherweise Teil von Rünthe</t>
   </si>
   <si>
     <t>Berge</t>
@@ -1397,8 +1382,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:J25" totalsRowShown="0">
-  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:J23" totalsRowShown="0">
+  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kreis">
       <calculatedColumnFormula>INDEX(Bürgermeistereien!$A:$A,MATCH(B2,Bürgermeistereien!$B:$B,0))</calculatedColumnFormula>
@@ -1734,7 +1719,7 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1767,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1975,7 +1960,7 @@
         <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J8" t="s">
         <v>153</v>
@@ -2003,7 +1988,7 @@
         <v>85</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J9" t="s">
         <v>153</v>
@@ -2031,7 +2016,7 @@
         <v>239</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J10" t="s">
         <v>153</v>
@@ -2059,7 +2044,7 @@
         <v>188</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J11" t="s">
         <v>153</v>
@@ -2171,7 +2156,7 @@
         <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
         <v>151</v>
@@ -2199,7 +2184,7 @@
         <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J16" t="s">
         <v>151</v>
@@ -2227,7 +2212,7 @@
         <v>345</v>
       </c>
       <c r="I17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J17" t="s">
         <v>151</v>
@@ -2255,7 +2240,7 @@
         <v>412</v>
       </c>
       <c r="I18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J18" t="s">
         <v>157</v>
@@ -2283,7 +2268,7 @@
         <v>380</v>
       </c>
       <c r="I19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J19" t="s">
         <v>157</v>
@@ -2311,7 +2296,7 @@
         <v>342</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J20" t="s">
         <v>152</v>
@@ -2339,7 +2324,7 @@
         <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
         <v>152</v>
@@ -2367,7 +2352,7 @@
         <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
         <v>152</v>
@@ -2395,10 +2380,10 @@
         <v>304</v>
       </c>
       <c r="I23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -2423,10 +2408,10 @@
         <v>464</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -2451,10 +2436,10 @@
         <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -2479,10 +2464,10 @@
         <v>318</v>
       </c>
       <c r="I26" t="s">
+        <v>262</v>
+      </c>
+      <c r="J26" t="s">
         <v>267</v>
-      </c>
-      <c r="J26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -2507,10 +2492,10 @@
         <v>643</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -2535,10 +2520,10 @@
         <v>577</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -2563,10 +2548,10 @@
         <v>400</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -2591,10 +2576,10 @@
         <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -2731,7 +2716,7 @@
         <v>228</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
         <v>154</v>
@@ -2759,7 +2744,7 @@
         <v>230</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
         <v>154</v>
@@ -2787,7 +2772,7 @@
         <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
         <v>154</v>
@@ -3761,11 +3746,9 @@
         <v>Pelkum</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="I88" s="11"/>
@@ -3775,12 +3758,11 @@
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C89,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
       </c>
-      <c r="B89" t="str">
-        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C89,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
-        <v>Pelkum</v>
+      <c r="B89" t="s">
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -3792,13 +3774,16 @@
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C90,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
       </c>
-      <c r="B90" t="s">
-        <v>163</v>
+      <c r="B90" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C90,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Pelkum</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="I90" s="11"/>
@@ -3808,15 +3793,11 @@
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C91,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
       </c>
-      <c r="B91" t="str">
-        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C91,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
-        <v>Pelkum</v>
-      </c>
       <c r="C91" t="s">
         <v>175</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -3827,15 +3808,11 @@
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C92,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
       </c>
-      <c r="B92" t="str">
-        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C92,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
-        <v>Pelkum</v>
-      </c>
       <c r="C92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -4340,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="I111" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J111" t="s">
         <v>158</v>
@@ -4368,7 +4345,7 @@
         <v>563</v>
       </c>
       <c r="I112" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J112" t="s">
         <v>158</v>
@@ -4394,7 +4371,7 @@
       </c>
       <c r="F113" s="2"/>
       <c r="I113" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J113" t="s">
         <v>156</v>
@@ -4420,7 +4397,7 @@
       </c>
       <c r="F114" s="2"/>
       <c r="I114" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J114" t="s">
         <v>156</v>
@@ -4837,14 +4814,14 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F133" s="2"/>
       <c r="I133" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J133" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
@@ -4867,10 +4844,10 @@
       </c>
       <c r="F134" s="2"/>
       <c r="I134" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J134" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +4942,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUMPRODUCT(1/COUNTIF(Flure[Gemeinde], Flure[Gemeinde]))</f>
-        <v>13.000000000000018</v>
+        <v>11.000000000000016</v>
       </c>
     </row>
   </sheetData>
@@ -4976,10 +4953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5045,13 +5022,13 @@
         <v>159</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -5064,22 +5041,22 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
         <v>183</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" t="s">
-        <v>188</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -5101,13 +5078,13 @@
         <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -5129,13 +5106,13 @@
         <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -5157,13 +5134,13 @@
         <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -5176,22 +5153,22 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -5204,22 +5181,22 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5232,22 +5209,22 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5269,10 +5246,10 @@
         <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>10</v>
@@ -5287,26 +5264,23 @@
       <c r="B11" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>180</v>
+      <c r="C11" t="s">
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" t="s">
+        <v>199</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -5319,22 +5293,22 @@
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>201</v>
       </c>
       <c r="H12" t="s">
         <v>202</v>
       </c>
-      <c r="I12" t="s">
-        <v>203</v>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -5347,21 +5321,21 @@
         <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1"/>
@@ -5372,22 +5346,22 @@
         <v>hamm</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>10</v>
+      <c r="G14" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>10</v>
@@ -5400,28 +5374,25 @@
         <v>hamm</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="F15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" t="s">
+        <v>212</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -5434,22 +5405,22 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>210</v>
+      <c r="G16" t="s">
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>10</v>
+        <v>216</v>
+      </c>
+      <c r="I16" t="s">
+        <v>217</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -5462,22 +5433,22 @@
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -5490,22 +5461,22 @@
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" t="s">
-        <v>222</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -5518,22 +5489,22 @@
         <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" t="s">
-        <v>235</v>
+        <v>250</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -5546,50 +5517,50 @@
         <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>10</v>
+        <v>248</v>
+      </c>
+      <c r="I20" t="s">
+        <v>249</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="str">
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B21,Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" t="s">
-        <v>244</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>10</v>
+        <v>108</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -5599,19 +5570,19 @@
         <v>hamm</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>252</v>
+        <v>111</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H22" t="s">
         <v>253</v>
@@ -5621,7 +5592,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="str">
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B23,Bürgermeistereien!$B:$B,0))</f>
         <v>hamm</v>
@@ -5630,80 +5601,24 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>257</v>
+      <c r="I23" t="s">
+        <v>255</v>
       </c>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="str">
-        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B24,Bürgermeistereien!$B:$B,0))</f>
-        <v>hamm</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" t="s">
-        <v>259</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="str">
-        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B25,Bürgermeistereien!$B:$B,0))</f>
-        <v>hamm</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" t="s">
-        <v>261</v>
-      </c>
-      <c r="I25" t="s">
-        <v>260</v>
-      </c>
-      <c r="J25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5719,7 +5634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -5757,7 +5672,7 @@
         <v>118</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -5804,7 +5719,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
